--- a/input-test.xlsx
+++ b/input-test.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B840E679-B726-4261-8AE9-27CF828E768A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Switches" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>Aveline</t>
   </si>
@@ -224,12 +225,15 @@
   </si>
   <si>
     <t>More6</t>
+  </si>
+  <si>
+    <t>totem mini finessed.ies</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -341,7 +345,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный_Лист1" xfId="1"/>
+    <cellStyle name="Обычный_Лист1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -618,12 +622,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="A3:XFD19"/>
+      <selection pane="bottomLeft" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,9 +777,8 @@
         <f>LOOKUP(,-SEARCH(" "&amp;Switches!$C$2:'Switches'!$C$1000&amp;" "," "&amp;TRIM(B2)&amp;" "),Switches!$C$2:'Switches'!$C$1000)</f>
         <v>Street</v>
       </c>
-      <c r="P2" t="str">
-        <f>IF(ISNUMBER(SEARCH("RGBW",B2)), "RGBW-"&amp;O2&amp;"-"&amp;Q2&amp;".ies", O2&amp;".ies")</f>
-        <v>Street.ies</v>
+      <c r="P2" t="s">
+        <v>68</v>
       </c>
       <c r="Q2" t="s">
         <v>64</v>
@@ -837,7 +840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
